--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1927.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1927.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.606839403432866</v>
+        <v>0.8201449513435364</v>
       </c>
       <c r="B1">
-        <v>3.781098713780468</v>
+        <v>0.6396301984786987</v>
       </c>
       <c r="C1">
-        <v>2.040598957229304</v>
+        <v>4.707525253295898</v>
       </c>
       <c r="D1">
-        <v>1.45855262278548</v>
+        <v>2.798688411712646</v>
       </c>
       <c r="E1">
-        <v>1.253147936752297</v>
+        <v>1.199601054191589</v>
       </c>
     </row>
   </sheetData>
